--- a/focus_template.xlsx
+++ b/focus_template.xlsx
@@ -1,64 +1,599 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
+  </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>工作量（口）</t>
+  </si>
+  <si>
+    <t>项目实时进度</t>
+  </si>
+  <si>
+    <t>预计开钻时间</t>
+  </si>
+  <si>
+    <t>首井开钻时间</t>
+  </si>
+  <si>
+    <t>重点关注事项</t>
+  </si>
+  <si>
+    <t>已完成价值工作量</t>
+  </si>
+  <si>
+    <t>今年预计完成工作量</t>
+  </si>
+  <si>
+    <t>孟加拉SGFL一口井钻井总包服务</t>
+  </si>
+  <si>
+    <t>目前：电测完，5-7/8"控压钻进至2993.1m。
+截止11月17日06:00开钻第112.74天，井深2993.1m。设计钻井周期90天，井深3326m。</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>做好本开小井眼钻进防喷、防卡工作。</t>
+  </si>
+  <si>
+    <t>累计完成价值工作量$1232.1712万。（动迁$392.472万、LC材料$451.9481万、第一阶段钻井$213.1826万、第二阶段钻井$174.5685万）</t>
+  </si>
+  <si>
+    <t>9月已完成动迁费用收取。R
+10月已完成LC材料费用收取。
+11月下旬完钻，12月完成钻井阶段费用收取。（预计2026年1月中旬完成完井测试，2月完成完井阶段费用收取。）</t>
+  </si>
+  <si>
+    <t>孟加拉SGFL三口井钻井总包服务</t>
+  </si>
+  <si>
+    <t>目前：一开中完，清理井场，检查整改设备，接钻杆立柱。
+截止11月17日06:00开钻第8.57天，井深218m。设计钻井周期90天，井深3006m。
+1.DP1井甲方批准井口移动10米方案，11日井场开始填砂；KTL-9井甲方同意井口坐标移动 14.73m方案，待甲方土地赔付。</t>
+  </si>
+  <si>
+    <t>1、关注R-11井后续物资供应。
+2、关注第2口井的基建进度。</t>
+  </si>
+  <si>
+    <t>累计完成价值工作量$459.0166万。（动迁$166.9985万、井场基建$292.0181万）。</t>
+  </si>
+  <si>
+    <t>10月已完成R-11井基建费用、动迁费用收取收取。R
+12月31日前完成R-11井12-1/4"井段钻进。
+（LC物资争取在年内完成收取。）</t>
+  </si>
+  <si>
+    <t>孟加拉SGFL四口井钻井总包服务</t>
+  </si>
+  <si>
+    <t>目前：Titas-28井场拉运和安装外围设备、化工料、钻具，蜀渝旋挖作业，预计12月8日开钻。
+1.Titas-28/29/30综合进度99%，预计11月中旬全部完工。
+2.LC物资：牙轮钻头、取心钻头、固井附件10月29日发运，11月12日到达吉大港，清关未完；油套管11月3日发运，预计11月25日到达吉大港；PDC钻头、井口套管头预计11月17日发运前检验，23日发运，12月8日到达吉大港</t>
+  </si>
+  <si>
+    <t>1、细化开钻前准备情况。
+2、关注LC物资发运前甲方验收情况。</t>
+  </si>
+  <si>
+    <t>累计完成价值工作量$0万。</t>
+  </si>
+  <si>
+    <t>1、12月完成动迁费用、Titas-28井基建费用收取。
+2、12月31日前完成Titas-28井17-1/2"钻进。
+（LC物资预计明年2月收取。）</t>
+  </si>
+  <si>
+    <t>孟加拉两口深井项目</t>
+  </si>
+  <si>
+    <t>目前：正在进行设备、人员配套。
+甲方征地中，预计12月1日交付。
+梳理和落实钻机及配套设备、物资项，PDC钻头11月20日开标，尾管悬挂器、井口套管头、完井工具技术协议修订中。配套人员筹备中</t>
+  </si>
+  <si>
+    <t>1、跟踪待签技术协议情况。
+2、关注人员配套情况。</t>
+  </si>
+  <si>
+    <t>第1个井场基建未完</t>
+  </si>
+  <si>
+    <t>伊拉克古尔内钻井总包服务</t>
+  </si>
+  <si>
+    <t>目前：二开清水强钻至554m，桥浆堵漏。
+第一口井设计井深1580m，10.22开钻。</t>
+  </si>
+  <si>
+    <t>关注二开钻进及井漏情况。</t>
+  </si>
+  <si>
+    <t>累计完成价值工作量$44.37万（动迁费）。</t>
+  </si>
+  <si>
+    <t>完成2口井钻井任务</t>
+  </si>
+  <si>
+    <t>伊拉克AK项目</t>
+  </si>
+  <si>
+    <t>目前：设备清关转运中。
+2025年10月6日授标，合同已签；
+设备于10月10日发运，11月7日到港，清关未完。</t>
+  </si>
+  <si>
+    <t>关注设备物资清关拉运情况。</t>
+  </si>
+  <si>
+    <t>设备验收完成，第一口井开钻。</t>
+  </si>
+  <si>
+    <t>伊拉克东巴项目</t>
+  </si>
+  <si>
+    <t>已提交标书，等待开标。</t>
+  </si>
+  <si>
+    <t>细化和落实设备配套。</t>
+  </si>
+  <si>
+    <t>设备运输到井场，完成安装调试。</t>
+  </si>
+  <si>
+    <t>厄瓜多尔55区ARMADILLO油田5口钻井总包服务(CCDC-66)</t>
+  </si>
+  <si>
+    <t>目前：ARMB-010井，套管开窗，电测，继续开窗侧钻。
+第1口井ARMB-014井2025.8.1 21:00～2025.9.18 02:00。
+第2口井ARMB-013井2025.9.24 19:00～2025.11.8 12:00。
+推移井架至第3口井ARMB-010井，2025年11月10日06:00开始作业。</t>
+  </si>
+  <si>
+    <t>厄瓜多尔PEC中部区块钻完井总包服务</t>
+  </si>
+  <si>
+    <t>目前：NNKB-011井，通井刮管，电测，射孔。
+7月23日开始动迁，第1口井NNKB-009井2025.9.5 15:00～2025.10.2 06:00。
+第2口井NNKB-010井，2025.10.3 19:30～2025.10.27 06:00。
+第3口井NNKB-011井，2025.10.27 18:00开钻。
+油套管发运情况：第一批13-3/8″套管9月7日发出，11月8日到厄，清关未完；第二批油套管10月15日发出，预计11月18日到厄</t>
+  </si>
+  <si>
+    <t>AMISTAD项目</t>
+  </si>
+  <si>
+    <t>目前：整改设备，作业前准备，配合甲方测试设备，配钻具。</t>
+  </si>
+  <si>
+    <t>关注内部协议的的谈判和签署。</t>
+  </si>
+  <si>
+    <t>完成平台及修井设备的动迁、设备调试；预计开修2口，完修1口。</t>
+  </si>
+  <si>
+    <t>巴基斯坦OPI项目</t>
+  </si>
+  <si>
+    <t>1、设备在宏华厂和大有公司检修。
+2、巴方7名员工和中方员工继续开展学习监修工作，预计11月30日启程返回巴基斯坦。
+宏华检测发现3个滑轮存在表面裂缝，井架大腿、人字架上6个滑轮拆除清洗时发现轴承锈蚀严重，4根起升大绳中2根绳体存在大片锈蚀，沟通协调解决方案。</t>
+  </si>
+  <si>
+    <t>钻机配套及按期发运到巴基斯坦应标</t>
+  </si>
+  <si>
+    <t>2025年12月上旬发运，争取收取动迁费120万美元。</t>
+  </si>
+  <si>
+    <t>秘鲁58区</t>
+  </si>
+  <si>
+    <t>确认调拨长钻的一台70钻机，设备在长钻井队集中，完成打包工作，11月17日陆续开始往天津港集港。试修设备物资在广汉集中。</t>
+  </si>
+  <si>
+    <t>钻机配套及按期发运离港</t>
+  </si>
+  <si>
+    <t>计划2025年11月25日发运</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -66,18 +601,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,46 +1231,373 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="44.625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="10.375"/>
+    <col min="5" max="5" width="17.125" style="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="46.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>合同编号</v>
-      </c>
-      <c r="B1" t="str">
-        <v>项目名称</v>
-      </c>
-      <c r="C1" t="str">
-        <v>工作量（口）</v>
-      </c>
-      <c r="D1" t="str">
-        <v>项目实时进度</v>
-      </c>
-      <c r="E1" t="str">
-        <v>首井开钻时间</v>
-      </c>
-      <c r="F1" t="str">
-        <v>重点关注事项</v>
-      </c>
-      <c r="G1" t="str">
-        <v>已完成价值工作量</v>
-      </c>
-      <c r="H1" t="str">
-        <v>今年预计完成工作量</v>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="71.25" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45865.5104166667</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="99.75" spans="1:8">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45969.6791666667</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="142.5" spans="1:8">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45999</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="71.25" spans="1:8">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>46082</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:8">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45952.2604166667</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="57" spans="1:8">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45992</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3">
+        <v>46023</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="114" spans="1:8">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45870.25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="128.25" spans="1:8">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45905.25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45969</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="99.75" spans="1:8">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3">
+        <v>46023</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3">
+        <v>46235</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
+    <ignoredError sqref="B12 F9:H10 D9:D10 G7:G8 E7:E8 D6 E4:E5 A1:H1 D2:D3 G11:G13 E11:E13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/focus_template.xlsx
+++ b/focus_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="13545" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -1239,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>45905.25</v>
+        <v>45905.5833333333</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
